--- a/Self-Evaluation-Protocol .xlsx
+++ b/Self-Evaluation-Protocol .xlsx
@@ -665,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,7 +676,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,20 +750,20 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11">
-        <v>4</v>
-      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11">
-        <v>25</v>
-      </c>
+      <c r="C9" s="5">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -970,7 +970,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
